--- a/methodologie/filtres/perimetre_maritime_naf.xlsx
+++ b/methodologie/filtres/perimetre_maritime_naf.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>type_secteur</t>
+          <t>type_metier</t>
         </is>
       </c>
     </row>

--- a/methodologie/filtres/perimetre_maritime_naf.xlsx
+++ b/methodologie/filtres/perimetre_maritime_naf.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,11 +368,6 @@
           <t>famille_mer</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>type_metier</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -385,11 +380,6 @@
           <t>Pêches et Cultures Marines</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -402,11 +392,6 @@
           <t>Pêches et Cultures Marines</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -419,11 +404,6 @@
           <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,11 +416,6 @@
           <t>Construction et Maintenance Navale</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -453,11 +428,6 @@
           <t>Construction et Maintenance Navale</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -470,11 +440,6 @@
           <t>Construction et Maintenance Navale</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -487,11 +452,6 @@
           <t>Construction et Maintenance Navale</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -504,11 +464,6 @@
           <t>Construction et Maintenance Navale</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -521,11 +476,6 @@
           <t>Travaux en Mer</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -538,11 +488,6 @@
           <t>Pêches et Cultures Marines</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -555,740 +500,508 @@
           <t>Pêches et Cultures Marines</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Coeur</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4723Z</t>
+          <t>5010Z</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pêches et Cultures Marines</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Coeur</t>
+          <t>Personnel embarqué</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5010Z</t>
+          <t>5020Z</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Personnel embarqué</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Coeur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5020Z</t>
+          <t>5222Z</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Personnel embarqué</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Coeur</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5222Z</t>
+          <t>5224A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Coeur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5224A</t>
+          <t>7734Z</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Coeur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7734Z</t>
+          <t>0610Z</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Coeur</t>
+          <t>Travaux en Mer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0610Z</t>
+          <t>0620Z</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Travaux en Mer</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0620Z</t>
+          <t>0910Z</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Travaux en Mer</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0910Z</t>
+          <t>1089Z</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Travaux en Mer</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Transformation des Produits de la Mer</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1089Z</t>
+          <t>1320Z</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transformation des Produits de la Mer</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1320Z</t>
+          <t>1392Z</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1392Z</t>
+          <t>1394Z</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1394Z</t>
+          <t>1412Z</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1412Z</t>
+          <t>1413Z</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1413Z</t>
+          <t>1419Z</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1419Z</t>
+          <t>2651A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2651A</t>
+          <t>2822Z</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2822Z</t>
+          <t>3511Z</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Travaux en Mer</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3511Z</t>
+          <t>4399D</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Travaux en Mer</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4399D</t>
+          <t>4614Z</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Travaux en Mer</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Services Portuaires et Nautiques</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4614Z</t>
+          <t>7721Z</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Services Portuaires et Nautiques</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7721Z</t>
+          <t>9329Z</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Activités et Loisirs Littoraux</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9329Z</t>
+          <t>5510Z</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Activités et Loisirs Littoraux</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Hôtellerie-Restauration</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5510Z</t>
+          <t>5520Z</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5520Z</t>
+          <t>5530Z</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5530Z</t>
+          <t>5590Z</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5590Z</t>
+          <t>5610A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5610A</t>
+          <t>5610B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5610B</t>
+          <t>5610C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5610C</t>
+          <t>5621Z</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5621Z</t>
+          <t>5629A</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5629A</t>
+          <t>5629B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5629B</t>
+          <t>5630Z</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5630Z</t>
+          <t>8422Z</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hôtellerie-Restauration</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Défense et Administrations Maritimes</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8422Z</t>
+          <t>8424Z</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Défense et Administrations Maritimes</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8424Z</t>
+          <t>8425Z</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Défense et Administrations Maritimes</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8425Z</t>
+          <t>7112B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Défense et Administrations Maritimes</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Travaux en Mer</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7112B</t>
+          <t>7120B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Travaux en Mer</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7120B</t>
+          <t>7211Z</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Travaux en Mer</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>R&amp;D et Ingénierie Maritime</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7211Z</t>
+          <t>7219Z</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>R&amp;D et Ingénierie Maritime</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7219Z</t>
+          <t>7911Z</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R&amp;D et Ingénierie Maritime</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Transverse</t>
+          <t>Activités et Loisirs Littoraux</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7911Z</t>
+          <t>7912Z</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Activités et Loisirs Littoraux</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Transverse</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>7912Z</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Activités et Loisirs Littoraux</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Transverse</t>
         </is>
       </c>
     </row>
